--- a/src/main/java/com/niranjan/automation/appln/testdata/TestData.xlsx
+++ b/src/main/java/com/niranjan/automation/appln/testdata/TestData.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="60" windowWidth="22932" windowHeight="9504" activeTab="2"/>
+    <workbookView xWindow="96" yWindow="60" windowWidth="22932" windowHeight="9504" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Gmail_Data" sheetId="1" r:id="rId1"/>
-    <sheet name="expences" sheetId="2" r:id="rId2"/>
+    <sheet name="Open_Cart" sheetId="2" r:id="rId2"/>
     <sheet name="contacts" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>rameshsoft.8309916995</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>practice</t>
+  </si>
+  <si>
+    <t>Your Store</t>
+  </si>
+  <si>
+    <t>Desktops,Laptops&amp;Notebooks,Components,Tablets,Software,Phones&amp;PDAs,Cameras,MP3 Players</t>
   </si>
 </sst>
 </file>
@@ -474,12 +480,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="80.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -488,7 +509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
